--- a/test_universalApp/gui_design.xlsx
+++ b/test_universalApp/gui_design.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\training\test_universalApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tmp\github\kanjiLearning\test_universalApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10380" windowHeight="5865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10380" windowHeight="5865" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>browser edit</t>
   </si>
@@ -151,6 +152,12 @@
   </si>
   <si>
     <t>detail/ draw panel</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -180,7 +187,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +206,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -357,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -382,6 +395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,7 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -904,4 +918,189 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="12" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="20"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>7</v>
+      </c>
+      <c r="P12">
+        <v>15</v>
+      </c>
+      <c r="Q12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>6</v>
+      </c>
+      <c r="P13">
+        <v>20</v>
+      </c>
+      <c r="Q13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>9</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test_universalApp/gui_design.xlsx
+++ b/test_universalApp/gui_design.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Study" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -76,8 +77,46 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Nguyen Van Khiem (FSU11.Z79)</author>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>both term and define</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>draw panel</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>browser edit</t>
   </si>
@@ -158,6 +197,33 @@
   </si>
   <si>
     <t>m</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>Prev</t>
+  </si>
+  <si>
+    <t>Sulf</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>cancel</t>
   </si>
 </sst>
 </file>
@@ -187,7 +253,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,8 +278,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -366,11 +438,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -396,6 +481,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,6 +1014,25 @@
       <c r="F29" s="16"/>
       <c r="G29" s="17"/>
     </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -921,19 +1041,177 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="29"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="14"/>
+      <c r="J5" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="13"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="14"/>
+      <c r="J6" s="32"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="13"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="13"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="13"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="30"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="U39" sqref="U39:V43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="12" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="3.5703125" customWidth="1"/>
+    <col min="16" max="17" width="3.7109375" customWidth="1"/>
+    <col min="18" max="18" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>0</v>
       </c>
@@ -964,141 +1242,847 @@
       <c r="K1">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="K3" s="20"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L3" s="20"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="N6">
+      <c r="J6" s="20"/>
+      <c r="S6">
         <v>0</v>
       </c>
-      <c r="O6">
+      <c r="T6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="C7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="N7">
+      <c r="I7" s="20"/>
+      <c r="S7">
         <v>2</v>
       </c>
-      <c r="O7">
+      <c r="T7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="D8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="N8">
+      <c r="H8" s="20"/>
+      <c r="S8">
         <v>7</v>
       </c>
-      <c r="O8">
+      <c r="T8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U9" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="M10" t="s">
+      <c r="E10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="R10" t="s">
         <v>26</v>
       </c>
-      <c r="N10">
+      <c r="S10">
         <v>0</v>
       </c>
-      <c r="O10">
+      <c r="T10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M11" t="s">
+      <c r="U10" s="13">
+        <f>S10*$U$9</f>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f>T10*$U$9</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>5</v>
+      </c>
+      <c r="U11" s="13">
+        <f t="shared" ref="U11:V16" si="0">S11*$U$9</f>
+        <v>8</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="R12" t="s">
         <v>25</v>
       </c>
-      <c r="N11">
+      <c r="S12">
+        <v>3.6</v>
+      </c>
+      <c r="T12">
+        <v>8.6</v>
+      </c>
+      <c r="U12" s="13">
+        <f t="shared" si="0"/>
+        <v>14.4</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <v>4</v>
+      </c>
+      <c r="T13">
+        <v>7</v>
+      </c>
+      <c r="U13" s="13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <v>5.4</v>
+      </c>
+      <c r="T14">
+        <v>8.6</v>
+      </c>
+      <c r="U14" s="13">
+        <f t="shared" si="0"/>
+        <v>21.6</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <v>9</v>
+      </c>
+      <c r="T15">
         <v>2</v>
       </c>
-      <c r="O11">
+      <c r="U15" s="13">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <v>10</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16" s="13">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
         <v>6</v>
       </c>
-      <c r="P11">
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>9</v>
+      </c>
+      <c r="I19">
         <v>10</v>
       </c>
-      <c r="Q11">
+      <c r="J19">
+        <v>11</v>
+      </c>
+      <c r="K19">
+        <v>12</v>
+      </c>
+      <c r="L19">
+        <v>13</v>
+      </c>
+      <c r="M19">
+        <v>14</v>
+      </c>
+      <c r="N19">
+        <v>15</v>
+      </c>
+      <c r="O19">
+        <v>16</v>
+      </c>
+      <c r="S19">
+        <v>100</v>
+      </c>
+      <c r="T19">
+        <v>200</v>
+      </c>
+      <c r="U19">
+        <f>S19/25</f>
+        <v>4</v>
+      </c>
+      <c r="V19">
+        <f>T19/25</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="R20" t="s">
+        <v>25</v>
+      </c>
+      <c r="S20">
+        <v>100</v>
+      </c>
+      <c r="T20">
+        <v>25</v>
+      </c>
+      <c r="U20">
+        <f t="shared" ref="U20:U22" si="1">S20/25</f>
+        <v>4</v>
+      </c>
+      <c r="V20">
+        <f t="shared" ref="V20:V22" si="2">T20/25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="S21">
+        <v>400</v>
+      </c>
+      <c r="T21">
+        <v>350</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="S22">
+        <v>400</v>
+      </c>
+      <c r="T22">
+        <v>175</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="O27" s="20"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28" s="20"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>14</v>
+      </c>
+      <c r="O34" s="20"/>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>6</v>
+      </c>
+      <c r="J37">
+        <v>7</v>
+      </c>
+      <c r="K37">
+        <v>8</v>
+      </c>
+      <c r="L37">
+        <v>9</v>
+      </c>
+      <c r="M37">
+        <v>10</v>
+      </c>
+      <c r="N37">
+        <v>11</v>
+      </c>
+      <c r="O37">
+        <v>12</v>
+      </c>
+      <c r="P37">
+        <v>13</v>
+      </c>
+      <c r="Q37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="U38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
+        <f>S39*$U$38</f>
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <f>T39*$U$38</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="S40">
+        <v>3</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <f t="shared" ref="U40:V43" si="3">S40*$U$38</f>
+        <v>15</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="S41">
+        <v>10</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="S42">
+        <v>10</v>
+      </c>
+      <c r="T42">
+        <v>6</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N12">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="S43">
         <v>3</v>
       </c>
-      <c r="O12">
+      <c r="T43">
+        <v>6</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B45">
         <v>7</v>
       </c>
-      <c r="P12">
-        <v>15</v>
-      </c>
-      <c r="Q12">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N13">
-        <v>4</v>
-      </c>
-      <c r="O13">
-        <v>6</v>
-      </c>
-      <c r="P13">
-        <v>20</v>
-      </c>
-      <c r="Q13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N14">
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B47">
         <v>9</v>
       </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>11</v>
+      </c>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>12</v>
+      </c>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>13</v>
+      </c>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>14</v>
+      </c>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_universalApp/gui_design.xlsx
+++ b/test_universalApp/gui_design.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10380" windowHeight="5865" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10380" windowHeight="5865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,34 +42,6 @@
             <charset val="1"/>
           </rPr>
           <t>browser btn</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A22" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>both term and define</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>draw panel</t>
         </r>
       </text>
     </comment>
@@ -116,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>browser edit</t>
   </si>
@@ -145,12 +117,6 @@
     <t>…</t>
   </si>
   <si>
-    <t>reload</t>
-  </si>
-  <si>
-    <t>add</t>
-  </si>
-  <si>
     <t>loading data page</t>
   </si>
   <si>
@@ -160,24 +126,12 @@
     <t>select chapter</t>
   </si>
   <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
     <t>shuf</t>
   </si>
   <si>
-    <t>flip</t>
-  </si>
-  <si>
     <t>detail</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
     <t>menu</t>
   </si>
   <si>
@@ -224,6 +178,21 @@
   </si>
   <si>
     <t>cancel</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>back</t>
   </si>
 </sst>
 </file>
@@ -253,7 +222,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +253,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -473,16 +448,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -497,6 +464,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,8 +761,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -804,41 +783,36 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
@@ -868,26 +842,32 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="B9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="E10" s="18" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -907,130 +887,18 @@
       <c r="D16" s="7"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="19">
-        <v>2</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="13"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="13"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="13"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="21" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1044,61 +912,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+        <v>14</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>34</v>
+      <c r="H3" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="29"/>
-      <c r="J4" s="32"/>
+      <c r="H4" s="25"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="8"/>
@@ -1106,8 +974,8 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="14"/>
-      <c r="J5" s="31" t="s">
-        <v>35</v>
+      <c r="J5" s="27" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1117,7 +985,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="14"/>
-      <c r="J6" s="32"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="13"/>
@@ -1137,7 +1005,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1151,8 +1019,8 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="29" t="s">
-        <v>32</v>
+      <c r="H10" s="25" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1161,30 +1029,30 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="30"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>28</v>
+      <c r="E12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="25"/>
+      <c r="C13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1255,11 +1123,11 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1270,14 +1138,14 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="K5" s="20"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="B6" s="17"/>
+      <c r="J6" s="17"/>
       <c r="S6">
         <v>0</v>
       </c>
@@ -1289,8 +1157,8 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="C7" s="17"/>
+      <c r="I7" s="17"/>
       <c r="S7">
         <v>2</v>
       </c>
@@ -1302,8 +1170,8 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="D8" s="17"/>
+      <c r="H8" s="17"/>
       <c r="S8">
         <v>7</v>
       </c>
@@ -1315,7 +1183,7 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="U9" s="20">
+      <c r="U9" s="17">
         <v>4</v>
       </c>
     </row>
@@ -1323,10 +1191,10 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="E10" s="17"/>
+      <c r="G10" s="17"/>
       <c r="R10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1347,7 +1215,7 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="17"/>
       <c r="S11">
         <v>2</v>
       </c>
@@ -1368,7 +1236,7 @@
         <v>10</v>
       </c>
       <c r="R12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S12">
         <v>3.6</v>
@@ -1508,15 +1376,15 @@
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
       <c r="R20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S20">
         <v>100</v>
@@ -1537,13 +1405,13 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
       <c r="S21">
         <v>400</v>
       </c>
@@ -1563,13 +1431,13 @@
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
       <c r="S22">
         <v>400</v>
       </c>
@@ -1589,68 +1457,68 @@
       <c r="B23">
         <v>3</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>4</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>5</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>6</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>7</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="O27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="O27" s="17"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>8</v>
       </c>
-      <c r="C28" s="20"/>
+      <c r="C28" s="17"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29">
@@ -1681,7 +1549,7 @@
       <c r="B34">
         <v>14</v>
       </c>
-      <c r="O34" s="20"/>
+      <c r="O34" s="17"/>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C37">
@@ -1734,20 +1602,20 @@
       <c r="B38">
         <v>0</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
       <c r="U38">
         <v>5</v>
       </c>
@@ -1756,20 +1624,20 @@
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
       <c r="S39">
         <v>0</v>
       </c>
@@ -1789,20 +1657,20 @@
       <c r="B40">
         <v>2</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
       <c r="S40">
         <v>3</v>
       </c>
@@ -1822,20 +1690,20 @@
       <c r="B41">
         <v>3</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
       <c r="S41">
         <v>10</v>
       </c>
@@ -1855,20 +1723,20 @@
       <c r="B42">
         <v>4</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
       <c r="S42">
         <v>10</v>
       </c>
@@ -1888,20 +1756,20 @@
       <c r="B43">
         <v>5</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
       <c r="S43">
         <v>3</v>
       </c>
@@ -1921,168 +1789,168 @@
       <c r="B44">
         <v>6</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>7</v>
       </c>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>8</v>
       </c>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>9</v>
       </c>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>10</v>
       </c>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>11</v>
       </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>12</v>
       </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="25"/>
-      <c r="O50" s="25"/>
-      <c r="P50" s="25"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>13</v>
       </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>14</v>
       </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="25"/>
-      <c r="P53" s="25"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_universalApp/gui_design.xlsx
+++ b/test_universalApp/gui_design.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tmp\github\kanjiLearning\test_universalApp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10380" windowHeight="5865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10380" windowHeight="5865" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Study" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="dict" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +25,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Nguyen Van Khiem (FSU11.Z79)</author>
+    <author>khiem nguyen van</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,17 +42,7 @@
         </r>
       </text>
     </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Nguyen Van Khiem (FSU11.Z79)</author>
-  </authors>
-  <commentList>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="F18" authorId="1">
       <text>
         <r>
           <rPr>
@@ -65,21 +52,94 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>khiem nguyen van:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+main page option</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Nguyen Van Khiem (FSU11.Z79)</author>
+    <author>khiem nguyen van</author>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>both term and define</t>
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0" shapeId="0">
+    <comment ref="D11" authorId="1">
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>draw panel</t>
+          <t>stack panel with scroll?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M11" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>han nom panel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>tab to radical/ word</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>words contain kanji/ stroke,
+tap to ref work</t>
         </r>
       </text>
     </comment>
@@ -88,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>browser edit</t>
   </si>
@@ -174,12 +234,6 @@
     <t>edit</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>cancel</t>
-  </si>
-  <si>
     <t>next</t>
   </si>
   <si>
@@ -193,13 +247,40 @@
   </si>
   <si>
     <t>back</t>
+  </si>
+  <si>
+    <t>言</t>
+  </si>
+  <si>
+    <t>葉</t>
+  </si>
+  <si>
+    <t>stroke, radical</t>
+  </si>
+  <si>
+    <t>refer words</t>
+  </si>
+  <si>
+    <t>kanji meaning</t>
+  </si>
+  <si>
+    <t>search panel</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>prev</t>
+  </si>
+  <si>
+    <t>paste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +302,18 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -232,12 +325,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,8 +346,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -322,19 +415,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -413,61 +493,61 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,7 +608,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -563,7 +643,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -740,7 +820,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -748,157 +828,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="24" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="I4" s="25"/>
+      <c r="J4" s="26"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="32"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="18"/>
+      <c r="F18" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="I19" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="34"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="E10" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>30</v>
+      <c r="E27" s="15" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -910,149 +1117,289 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="13" width="3.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
+      <c r="B2" s="8"/>
+      <c r="D2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="23"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="B3" s="8"/>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="2"/>
+      <c r="O3" s="18"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="8"/>
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="25"/>
-      <c r="J4" s="28"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="10"/>
+      <c r="O4" s="18"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="14"/>
-      <c r="J5" s="27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="13"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="14"/>
-      <c r="J6" s="28"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="13"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="13"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="10"/>
+      <c r="O5" s="18"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D6" s="9"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="10"/>
+      <c r="O6" s="18"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D7" s="9"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="10"/>
+      <c r="O7" s="18"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D8" s="9"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="10"/>
+      <c r="O8" s="18"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D9" s="9"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="13"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="25" t="s">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="10"/>
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D10" s="9"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="10"/>
+      <c r="O10" s="18"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D11" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="3"/>
+      <c r="O11" s="18"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="10"/>
+      <c r="O12" s="18"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="19"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D16" s="9"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="39" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="26"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="19" t="s">
+      <c r="M16" s="19"/>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="20"/>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F18" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="G18" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="H18" s="37"/>
+      <c r="I18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="J18" s="15"/>
+      <c r="K18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="L18" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="19" t="s">
+      <c r="M18" s="37"/>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D19" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="21"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1065,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="U39" sqref="U39:V43"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,11 +1470,11 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1138,14 +1485,14 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="K5" s="17"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="J6" s="17"/>
+      <c r="B6" s="13"/>
+      <c r="J6" s="13"/>
       <c r="S6">
         <v>0</v>
       </c>
@@ -1157,8 +1504,8 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="C7" s="13"/>
+      <c r="I7" s="13"/>
       <c r="S7">
         <v>2</v>
       </c>
@@ -1170,8 +1517,8 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="D8" s="13"/>
+      <c r="H8" s="13"/>
       <c r="S8">
         <v>7</v>
       </c>
@@ -1183,7 +1530,7 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="U9" s="17">
+      <c r="U9" s="13">
         <v>4</v>
       </c>
     </row>
@@ -1191,8 +1538,8 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="R10" t="s">
         <v>20</v>
       </c>
@@ -1202,7 +1549,7 @@
       <c r="T10">
         <v>4</v>
       </c>
-      <c r="U10" s="13">
+      <c r="U10" s="9">
         <f>S10*$U$9</f>
         <v>0</v>
       </c>
@@ -1215,14 +1562,14 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="13"/>
       <c r="S11">
         <v>2</v>
       </c>
       <c r="T11">
         <v>5</v>
       </c>
-      <c r="U11" s="13">
+      <c r="U11" s="9">
         <f t="shared" ref="U11:V16" si="0">S11*$U$9</f>
         <v>8</v>
       </c>
@@ -1244,7 +1591,7 @@
       <c r="T12">
         <v>8.6</v>
       </c>
-      <c r="U12" s="13">
+      <c r="U12" s="9">
         <f t="shared" si="0"/>
         <v>14.4</v>
       </c>
@@ -1260,7 +1607,7 @@
       <c r="T13">
         <v>7</v>
       </c>
-      <c r="U13" s="13">
+      <c r="U13" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1276,7 +1623,7 @@
       <c r="T14">
         <v>8.6</v>
       </c>
-      <c r="U14" s="13">
+      <c r="U14" s="9">
         <f t="shared" si="0"/>
         <v>21.6</v>
       </c>
@@ -1292,7 +1639,7 @@
       <c r="T15">
         <v>2</v>
       </c>
-      <c r="U15" s="13">
+      <c r="U15" s="9">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -1308,7 +1655,7 @@
       <c r="T16">
         <v>1</v>
       </c>
-      <c r="U16" s="13">
+      <c r="U16" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -1376,13 +1723,13 @@
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
       <c r="R20" t="s">
         <v>19</v>
       </c>
@@ -1405,13 +1752,13 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
       <c r="S21">
         <v>400</v>
       </c>
@@ -1431,13 +1778,13 @@
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
       <c r="S22">
         <v>400</v>
       </c>
@@ -1457,68 +1804,68 @@
       <c r="B23">
         <v>3</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>4</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>5</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>6</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>7</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="O27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="O27" s="13"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>8</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29">
@@ -1549,7 +1896,7 @@
       <c r="B34">
         <v>14</v>
       </c>
-      <c r="O34" s="17"/>
+      <c r="O34" s="13"/>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C37">
@@ -1602,20 +1949,20 @@
       <c r="B38">
         <v>0</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
       <c r="U38">
         <v>5</v>
       </c>
@@ -1624,20 +1971,20 @@
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
       <c r="S39">
         <v>0</v>
       </c>
@@ -1657,20 +2004,20 @@
       <c r="B40">
         <v>2</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
       <c r="S40">
         <v>3</v>
       </c>
@@ -1690,20 +2037,20 @@
       <c r="B41">
         <v>3</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
       <c r="S41">
         <v>10</v>
       </c>
@@ -1723,20 +2070,20 @@
       <c r="B42">
         <v>4</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
       <c r="S42">
         <v>10</v>
       </c>
@@ -1756,20 +2103,20 @@
       <c r="B43">
         <v>5</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
       <c r="S43">
         <v>3</v>
       </c>
@@ -1789,168 +2136,313 @@
       <c r="B44">
         <v>6</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>7</v>
       </c>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>8</v>
       </c>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>9</v>
       </c>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>10</v>
       </c>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>11</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>12</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>13</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>14</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="15" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="9"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="9"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="9"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="9"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="9"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="9"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="9"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="9"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="9"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="9"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_universalApp/gui_design.xlsx
+++ b/test_universalApp/gui_design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10380" windowHeight="5865" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10380" windowHeight="5865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>browser edit</t>
   </si>
@@ -274,6 +274,21 @@
   </si>
   <si>
     <t>paste</t>
+  </si>
+  <si>
+    <t>main page option</t>
+  </si>
+  <si>
+    <t>reading</t>
+  </si>
+  <si>
+    <t>kanji learning</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>dict size</t>
   </si>
 </sst>
 </file>
@@ -497,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -548,6 +563,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,7 +836,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -828,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,12 +855,12 @@
     <col min="1" max="24" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
         <v>31</v>
       </c>
@@ -857,7 +873,7 @@
       <c r="I2" s="22"/>
       <c r="J2" s="23"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,7 +888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
@@ -897,7 +913,7 @@
       <c r="I4" s="25"/>
       <c r="J4" s="26"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" s="27"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
@@ -908,7 +924,7 @@
       <c r="I5" s="28"/>
       <c r="J5" s="29"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" s="27"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -919,7 +935,7 @@
       <c r="I6" s="28"/>
       <c r="J6" s="29"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="27"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -930,7 +946,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="29"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -941,7 +957,7 @@
       <c r="I8" s="28"/>
       <c r="J8" s="29"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -952,7 +968,7 @@
       <c r="I9" s="28"/>
       <c r="J9" s="29"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="27"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -963,7 +979,7 @@
       <c r="I10" s="28"/>
       <c r="J10" s="29"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" s="27"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -974,7 +990,7 @@
       <c r="I11" s="28"/>
       <c r="J11" s="29"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -984,8 +1000,11 @@
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
       <c r="J12" s="29"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -995,8 +1014,18 @@
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="29"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S13" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B14" s="27"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -1006,8 +1035,16 @@
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
       <c r="J14" s="29"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="10"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
@@ -1017,8 +1054,14 @@
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="29"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S15" s="9"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="10"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
@@ -1028,8 +1071,16 @@
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
       <c r="J16" s="29"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="10"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B17" s="30"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
@@ -1039,8 +1090,14 @@
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
       <c r="J17" s="32"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S17" s="1"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D18" s="18"/>
       <c r="F18" s="35" t="s">
         <v>8</v>
@@ -1053,8 +1110,14 @@
         <v>30</v>
       </c>
       <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S18" s="11"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="45"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -1063,12 +1126,12 @@
       </c>
       <c r="J19" s="34"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="s">
         <v>17</v>
       </c>
@@ -1076,31 +1139,31 @@
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>32</v>
       </c>
@@ -1412,7 +1475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
@@ -2308,7 +2371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>

--- a/test_universalApp/gui_design.xlsx
+++ b/test_universalApp/gui_design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10380" windowHeight="5865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10380" windowHeight="5865" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="1">
+    <comment ref="D4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="1">
+    <comment ref="M4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="1">
+    <comment ref="D5" authorId="1">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="1">
+    <comment ref="D7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>browser edit</t>
   </si>
@@ -216,24 +216,12 @@
     <t>Back</t>
   </si>
   <si>
-    <t>Next</t>
-  </si>
-  <si>
     <t>1/3</t>
   </si>
   <si>
     <t>Prev</t>
   </si>
   <si>
-    <t>Sulf</t>
-  </si>
-  <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>edit</t>
-  </si>
-  <si>
     <t>next</t>
   </si>
   <si>
@@ -289,6 +277,24 @@
   </si>
   <si>
     <t>dict size</t>
+  </si>
+  <si>
+    <t>full dict</t>
+  </si>
+  <si>
+    <t>suft</t>
+  </si>
+  <si>
+    <t>setting</t>
+  </si>
+  <si>
+    <t>speak</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>&lt;extentd commands&gt;</t>
   </si>
 </sst>
 </file>
@@ -368,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -508,11 +514,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -564,6 +583,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,7 +856,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -846,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
@@ -862,7 +882,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -1001,7 +1021,7 @@
       <c r="I12" s="28"/>
       <c r="J12" s="29"/>
       <c r="S12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -1015,13 +1035,13 @@
       <c r="I13" s="28"/>
       <c r="J13" s="29"/>
       <c r="S13" s="46" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X13" s="3"/>
     </row>
@@ -1036,7 +1056,7 @@
       <c r="I14" s="28"/>
       <c r="J14" s="29"/>
       <c r="S14" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
@@ -1072,7 +1092,7 @@
       <c r="I16" s="28"/>
       <c r="J16" s="29"/>
       <c r="S16" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -1103,11 +1123,11 @@
         <v>8</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="36" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J18" s="2"/>
       <c r="S18" s="11"/>
@@ -1122,7 +1142,7 @@
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="I19" s="33" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J19" s="34"/>
     </row>
@@ -1165,10 +1185,10 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1182,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1222,7 @@
       </c>
       <c r="B2" s="8"/>
       <c r="D2" s="21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
@@ -1219,18 +1239,18 @@
         <v>12</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="D3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="2"/>
+      <c r="D3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="10"/>
       <c r="O3" s="18"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1238,18 +1258,20 @@
         <v>15</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="D4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="10"/>
+      <c r="D4" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="3"/>
       <c r="O4" s="18"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1257,7 +1279,9 @@
         <v>13</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1270,7 +1294,9 @@
       <c r="O5" s="18"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1283,20 +1309,24 @@
       <c r="O6" s="18"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D7" s="9"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="10"/>
+      <c r="D7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="45"/>
       <c r="O7" s="18"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -1304,7 +1334,6 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
       <c r="M8" s="10"/>
       <c r="O8" s="18"/>
     </row>
@@ -1317,44 +1346,38 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
       <c r="M9" s="10"/>
       <c r="O9" s="18"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D10" s="9"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="M10" s="45"/>
       <c r="O10" s="18"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D11" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="41" t="s">
+      <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="2"/>
       <c r="O11" s="18"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D12" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -1367,9 +1390,7 @@
       <c r="O12" s="18"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D13" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="D13" s="9"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1381,25 +1402,18 @@
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="20"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D15" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="D15" s="9"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1407,8 +1421,10 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="19"/>
+      <c r="M15" s="10"/>
+      <c r="N15" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D16" s="9"/>
@@ -1419,50 +1435,62 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="19"/>
-    </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="20"/>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F18" s="15" t="s">
+      <c r="M16" s="10"/>
+      <c r="N16" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" s="19"/>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D17" s="9"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" s="20"/>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="37"/>
+      <c r="M18" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="37"/>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D19" s="38" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
+      <c r="L19" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2386,11 +2414,11 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2"/>
     </row>
@@ -2487,11 +2515,11 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J13" s="2"/>
     </row>
@@ -2503,7 +2531,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J14" s="45"/>
     </row>

--- a/test_universalApp/gui_design.xlsx
+++ b/test_universalApp/gui_design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10380" windowHeight="5865" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10380" windowHeight="5865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,20 @@
   </authors>
   <commentList>
     <comment ref="J3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>browser btn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>browser edit</t>
   </si>
@@ -295,6 +309,9 @@
   </si>
   <si>
     <t>&lt;extentd commands&gt;</t>
+  </si>
+  <si>
+    <t>recent folder</t>
   </si>
 </sst>
 </file>
@@ -856,7 +873,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -864,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,12 +892,12 @@
     <col min="1" max="24" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
         <v>27</v>
       </c>
@@ -892,8 +909,17 @@
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
       <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="23"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -907,8 +933,19 @@
       <c r="J3" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
@@ -932,8 +969,15 @@
       </c>
       <c r="I4" s="25"/>
       <c r="J4" s="26"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="26"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B5" s="27"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
@@ -943,8 +987,17 @@
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
       <c r="J5" s="29"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA5" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="29"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B6" s="27"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -954,8 +1007,15 @@
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
       <c r="J6" s="29"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="29"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B7" s="27"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -965,8 +1025,15 @@
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
       <c r="J7" s="29"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="29"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -976,8 +1043,15 @@
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
       <c r="J8" s="29"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="29"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -987,8 +1061,15 @@
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
       <c r="J9" s="29"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="29"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" s="27"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -998,8 +1079,15 @@
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
       <c r="J10" s="29"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="29"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" s="27"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -1009,8 +1097,15 @@
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="29"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="29"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -1023,8 +1118,15 @@
       <c r="S12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="29"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -1044,8 +1146,15 @@
         <v>41</v>
       </c>
       <c r="X13" s="3"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="29"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" s="27"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -1063,8 +1172,15 @@
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="10"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="29"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
@@ -1080,8 +1196,15 @@
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="10"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="29"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
@@ -1099,8 +1222,15 @@
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
       <c r="X16" s="10"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="29"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B17" s="30"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
@@ -1116,8 +1246,15 @@
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="2"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="32"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D18" s="18"/>
       <c r="F18" s="35" t="s">
         <v>8</v>
@@ -1137,7 +1274,7 @@
       <c r="W18" s="12"/>
       <c r="X18" s="45"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -1146,12 +1283,12 @@
       </c>
       <c r="J19" s="34"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="s">
         <v>17</v>
       </c>
@@ -1159,31 +1296,31 @@
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>28</v>
       </c>
@@ -1202,7 +1339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
